--- a/medicine/Enfance/Fantômette_viendra_ce_soir/Fantômette_viendra_ce_soir.xlsx
+++ b/medicine/Enfance/Fantômette_viendra_ce_soir/Fantômette_viendra_ce_soir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_viendra_ce_soir</t>
+          <t>Fantômette_viendra_ce_soir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette viendra ce soir est le 20e roman de la série humoristique Fantômette créée par Georges Chaulet. Publié en 1972 dans la Bibliothèque rose des éditions Hachette, il comporte 155 pages.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_viendra_ce_soir</t>
+          <t>Fantômette_viendra_ce_soir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette viendra ce soir a donc pu être vendu à environ 200 000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_viendra_ce_soir</t>
+          <t>Fantômette_viendra_ce_soir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Françoise Dupont / Fantômette : héroïne du roman
 Ficelle : amie de Françoise et de Boulotte
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_viendra_ce_soir</t>
+          <t>Fantômette_viendra_ce_soir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1972 en langue française.
 Mise en place de l'intrigue
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_viendra_ce_soir</t>
+          <t>Fantômette_viendra_ce_soir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +641,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le journaliste Œil-de-Lynx aide Fantômette mais n'a pas un rôle essentiel dans le récit.
 </t>
